--- a/va_facility_data_2025-02-20/Port Jervis VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Port%20Jervis%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Port Jervis VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Port%20Jervis%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Ra20f6950bb2c48c89da9b74ddfcda566"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1dcb7c74178545a188b08d354b322149"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R5084492b13ed4b1fa34f683b963c5876"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R7a153c1945114754b759046d504c82b4"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R793f9bc7e2374bad9369a950adef4ee0"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R752beb8c588c4777b48b26d53f415f24"/>
   </x:sheets>
 </x:workbook>
 </file>
